--- a/business_data/excel_data/laCuevita.xlsx
+++ b/business_data/excel_data/laCuevita.xlsx
@@ -455,11 +455,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agua</t>
+          <t>Ketchup</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -468,11 +468,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ketchup</t>
+          <t>Agua</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -512,11 +512,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -525,11 +525,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
@@ -538,11 +538,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Juanito</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/business_data/excel_data/laCuevita.xlsx
+++ b/business_data/excel_data/laCuevita.xlsx
@@ -20,7 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,11 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +476,46 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>200</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cigarro</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>arroz</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +627,44 @@
         <is>
           <t>date</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Agua</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Agua</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44978</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +706,120 @@
         <is>
           <t>date</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cigarro</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cigarro</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cigarro</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>200</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>arroz</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>200</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>44978</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,6 +858,54 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>"c a"</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>"c a"</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Inspector</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
